--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clate-my.sharepoint.com/personal/clate_clatent_com/Documents/Documents/GitHub/Testing-Scripts/PowerShell 2023/365/Exchange/Creating 365 Test Environment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clate-my.sharepoint.com/personal/clate_clatent_com/Documents/Documents/GitHub/365AutomatedLab/LabSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFBC436-4346-4D14-8E86-9E5AE313E922}"/>
   <bookViews>
-    <workbookView xWindow="31710" yWindow="3330" windowWidth="22155" windowHeight="10890" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="9000" yWindow="2910" windowWidth="19440" windowHeight="11370" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
   <si>
     <t>FirstName</t>
   </si>
@@ -81,123 +81,27 @@
     <t>UsageLocation</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>testuser1</t>
-  </si>
-  <si>
-    <t>IT Engineer</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>2 Yoda St</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
     <t>NY</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>914-123-1223</t>
-  </si>
-  <si>
-    <t>123-343-3432</t>
-  </si>
-  <si>
     <t>DEVELOPERPACK_E5</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>User2</t>
-  </si>
-  <si>
-    <t>testuser2</t>
-  </si>
-  <si>
-    <t>Marketing Manager</t>
-  </si>
-  <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>94 Sweet Ln</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>232-223-1231</t>
-  </si>
-  <si>
-    <t>434-378-2342</t>
-  </si>
-  <si>
-    <t>User3</t>
-  </si>
-  <si>
-    <t>testuser3</t>
-  </si>
-  <si>
-    <t>Human Resources Manager</t>
-  </si>
-  <si>
-    <t>Human Resources</t>
-  </si>
-  <si>
-    <t>30 Running Rd</t>
-  </si>
-  <si>
     <t>Los Angeles</t>
   </si>
   <si>
     <t>CA</t>
   </si>
   <si>
-    <t>254-321-1567</t>
-  </si>
-  <si>
-    <t>774-227-8964</t>
-  </si>
-  <si>
-    <t>User4</t>
-  </si>
-  <si>
-    <t>testuser4</t>
-  </si>
-  <si>
-    <t>Accounting Manager</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>82 Turnaround Ave</t>
-  </si>
-  <si>
-    <t>Syracuse</t>
-  </si>
-  <si>
-    <t>633-217-5782</t>
-  </si>
-  <si>
-    <t>974-234-7898</t>
-  </si>
-  <si>
     <t>DisplayName</t>
   </si>
   <si>
@@ -388,6 +292,276 @@
   </si>
   <si>
     <t>CA Printer 2</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>jdoe</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>123 Main St.</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>555-123-4567</t>
+  </si>
+  <si>
+    <t>555-765-4321</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>jsmith</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>456 Park Ave.</t>
+  </si>
+  <si>
+    <t>555-234-5678</t>
+  </si>
+  <si>
+    <t>555-876-5432</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>bjohnson</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>789 Broadway</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>555-345-6789</t>
+  </si>
+  <si>
+    <t>555-987-6543</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>awilliams</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>321 Elm St.</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>555-456-7890</t>
+  </si>
+  <si>
+    <t>555-098-7654</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>cbrown</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>654 Oak Ave.</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>555-567-8901</t>
+  </si>
+  <si>
+    <t>555-109-8765</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>ldavis</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>987 Cedar Blvd.</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>555-678-9012</t>
+  </si>
+  <si>
+    <t>555-210-9876</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>mmiller</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>234 Pine St.</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>555-789-0123</t>
+  </si>
+  <si>
+    <t>555-321-0987</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>mwilson</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Consulting</t>
+  </si>
+  <si>
+    <t>567 Maple Dr.</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>555-890-1234</t>
+  </si>
+  <si>
+    <t>555-432-1098</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>janderson</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>890 Birch Ln.</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>555-901-2345</t>
+  </si>
+  <si>
+    <t>555-543-2109</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>pthomas</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>Legal</t>
+  </si>
+  <si>
+    <t>123 Spruce St.</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>555-012-3456</t>
+  </si>
+  <si>
+    <t>555-654-3210</t>
   </si>
 </sst>
 </file>
@@ -739,13 +913,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52769B47-957A-4F9B-8A1C-849E74A1076A}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -785,186 +971,450 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2">
+        <v>10001</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>25564</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I3">
-        <v>75435</v>
+        <v>90001</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="I4">
-        <v>64326</v>
+        <v>60601</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I5">
-        <v>12352</v>
+        <v>77001</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I6">
+        <v>19019</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7">
+        <v>85001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8">
+        <v>78201</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>92101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10">
+        <v>75201</v>
+      </c>
+      <c r="J10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>95101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" t="s">
+        <v>174</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -976,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6396F3-6D7B-46A0-9EAC-B306C37237B1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,299 +1440,299 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clate-my.sharepoint.com/personal/clate_clatent_com/Documents/Documents/GitHub/365AutomatedLab/LabSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAFBC436-4346-4D14-8E86-9E5AE313E922}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC19259-5004-4AB6-9A7A-942B3EF3F242}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="2910" windowWidth="19440" windowHeight="11370" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="20025" windowHeight="12660" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Groups" sheetId="2" r:id="rId2"/>
+    <sheet name="NY-IT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="240">
   <si>
     <t>FirstName</t>
   </si>
@@ -81,9 +82,6 @@
     <t>UsageLocation</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
@@ -297,111 +295,24 @@
     <t>John</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>jdoe</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>123 Main St.</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
-    <t>555-123-4567</t>
-  </si>
-  <si>
-    <t>555-765-4321</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>jsmith</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>456 Park Ave.</t>
-  </si>
-  <si>
-    <t>555-234-5678</t>
-  </si>
-  <si>
-    <t>555-876-5432</t>
-  </si>
-  <si>
     <t>Bob</t>
   </si>
   <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>bjohnson</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>789 Broadway</t>
-  </si>
-  <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>555-345-6789</t>
-  </si>
-  <si>
-    <t>555-987-6543</t>
-  </si>
-  <si>
     <t>Alice</t>
   </si>
   <si>
     <t>Williams</t>
   </si>
   <si>
-    <t>awilliams</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>321 Elm St.</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>555-456-7890</t>
-  </si>
-  <si>
-    <t>555-098-7654</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -411,157 +322,442 @@
     <t>HR Manager</t>
   </si>
   <si>
-    <t>654 Oak Ave.</t>
-  </si>
-  <si>
-    <t>Philadelphia</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>555-567-8901</t>
-  </si>
-  <si>
-    <t>555-109-8765</t>
-  </si>
-  <si>
-    <t>Linda</t>
-  </si>
-  <si>
     <t>Davis</t>
   </si>
   <si>
-    <t>ldavis</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Administration</t>
-  </si>
-  <si>
-    <t>987 Cedar Blvd.</t>
-  </si>
-  <si>
-    <t>Phoenix</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>555-678-9012</t>
-  </si>
-  <si>
-    <t>555-210-9876</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>mmiller</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
-    <t>234 Pine St.</t>
-  </si>
-  <si>
-    <t>San Antonio</t>
-  </si>
-  <si>
-    <t>555-789-0123</t>
-  </si>
-  <si>
-    <t>555-321-0987</t>
-  </si>
-  <si>
     <t>Mary</t>
   </si>
   <si>
     <t>Wilson</t>
   </si>
   <si>
-    <t>mwilson</t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t>Consulting</t>
-  </si>
-  <si>
-    <t>567 Maple Dr.</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>555-890-1234</t>
-  </si>
-  <si>
-    <t>555-432-1098</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
     <t>Anderson</t>
   </si>
   <si>
-    <t>janderson</t>
-  </si>
-  <si>
-    <t>VP</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>890 Birch Ln.</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>555-901-2345</t>
-  </si>
-  <si>
-    <t>555-543-2109</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
-    <t>pthomas</t>
-  </si>
-  <si>
-    <t>Associate</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>123 Spruce St.</t>
-  </si>
-  <si>
-    <t>San Jose</t>
-  </si>
-  <si>
-    <t>555-012-3456</t>
-  </si>
-  <si>
-    <t>555-654-3210</t>
+    <t>IT Specialist</t>
+  </si>
+  <si>
+    <t>212-555-1234</t>
+  </si>
+  <si>
+    <t>212-555-5678</t>
+  </si>
+  <si>
+    <t>456 Elm St</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>305-555-1234</t>
+  </si>
+  <si>
+    <t>305-555-5678</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>789 Pine St</t>
+  </si>
+  <si>
+    <t>213-555-1234</t>
+  </si>
+  <si>
+    <t>213-555-5678</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Marketing Manager</t>
+  </si>
+  <si>
+    <t>415-555-1234</t>
+  </si>
+  <si>
+    <t>415-555-5678</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Network Engineer</t>
+  </si>
+  <si>
+    <t>716-555-1234</t>
+  </si>
+  <si>
+    <t>716-555-5678</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>HR Analyst</t>
+  </si>
+  <si>
+    <t>407-555-1234</t>
+  </si>
+  <si>
+    <t>407-555-5678</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Financial Analyst</t>
+  </si>
+  <si>
+    <t>619-555-1234</t>
+  </si>
+  <si>
+    <t>619-555-5678</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Marketing Associate</t>
+  </si>
+  <si>
+    <t>408-555-1234</t>
+  </si>
+  <si>
+    <t>408-555-5678</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>System Administrator</t>
+  </si>
+  <si>
+    <t>585-555-1234</t>
+  </si>
+  <si>
+    <t>585-555-5678</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>Recruiter</t>
+  </si>
+  <si>
+    <t>813-555-1234</t>
+  </si>
+  <si>
+    <t>813-555-5678</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Senior Accountant</t>
+  </si>
+  <si>
+    <t>916-555-1234</t>
+  </si>
+  <si>
+    <t>916-555-5678</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Marketing Coordinator</t>
+  </si>
+  <si>
+    <t>510-555-1234</t>
+  </si>
+  <si>
+    <t>510-555-5678</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>IT Support Specialist</t>
+  </si>
+  <si>
+    <t>914-555-1234</t>
+  </si>
+  <si>
+    <t>914-555-5678</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>HR Generalist</t>
+  </si>
+  <si>
+    <t>904-555-1234</t>
+  </si>
+  <si>
+    <t>904-555-5678</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Auditor</t>
+  </si>
+  <si>
+    <t>559-555-1234</t>
+  </si>
+  <si>
+    <t>559-555-5678</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Marketing Analyst</t>
+  </si>
+  <si>
+    <t>661-555-1234</t>
+  </si>
+  <si>
+    <t>661-555-5678</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>IT Manager</t>
+  </si>
+  <si>
+    <t>315-555-1234</t>
+  </si>
+  <si>
+    <t>315-555-5678</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>HR Director</t>
+  </si>
+  <si>
+    <t>954-555-1234</t>
+  </si>
+  <si>
+    <t>954-555-5678</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>714-555-1234</t>
+  </si>
+  <si>
+    <t>714-555-5678</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Marketing Strategist</t>
+  </si>
+  <si>
+    <t>Uma</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>IT Consultant</t>
+  </si>
+  <si>
+    <t>1818 Maple St</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>518-555-1234</t>
+  </si>
+  <si>
+    <t>518-555-5678</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>HR Coordinator</t>
+  </si>
+  <si>
+    <t>727-555-1234</t>
+  </si>
+  <si>
+    <t>727-555-5678</t>
+  </si>
+  <si>
+    <t>Wendy</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Accounting Clerk</t>
+  </si>
+  <si>
+    <t>562-555-1234</t>
+  </si>
+  <si>
+    <t>562-555-5678</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>Marketing Assistant</t>
+  </si>
+  <si>
+    <t>951-555-1234</t>
+  </si>
+  <si>
+    <t>951-555-5678</t>
+  </si>
+  <si>
+    <t>Yasmine</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>IT Analyst</t>
+  </si>
+  <si>
+    <t>607-555-1234</t>
+  </si>
+  <si>
+    <t>607-555-5678</t>
+  </si>
+  <si>
+    <t>ogreen</t>
+  </si>
+  <si>
+    <t>ajohnson</t>
+  </si>
+  <si>
+    <t>bsmith</t>
+  </si>
+  <si>
+    <t>dwilliams</t>
+  </si>
+  <si>
+    <t>eharris</t>
+  </si>
+  <si>
+    <t>fclark</t>
+  </si>
+  <si>
+    <t>gwilson</t>
+  </si>
+  <si>
+    <t>hlewis</t>
+  </si>
+  <si>
+    <t>irodriguez</t>
+  </si>
+  <si>
+    <t>jmartinez</t>
+  </si>
+  <si>
+    <t>kmoore</t>
+  </si>
+  <si>
+    <t>ljackson</t>
+  </si>
+  <si>
+    <t>mwhite</t>
+  </si>
+  <si>
+    <t>ndavis</t>
+  </si>
+  <si>
+    <t>ptaylor</t>
+  </si>
+  <si>
+    <t>qadams</t>
+  </si>
+  <si>
+    <t>randerson</t>
+  </si>
+  <si>
+    <t>sturner</t>
+  </si>
+  <si>
+    <t>thall</t>
+  </si>
+  <si>
+    <t>uking</t>
+  </si>
+  <si>
+    <t>vyoung</t>
+  </si>
+  <si>
+    <t>whernandez</t>
+  </si>
+  <si>
+    <t>xfoster</t>
+  </si>
+  <si>
+    <t>yprice</t>
   </si>
 </sst>
 </file>
@@ -913,20 +1109,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52769B47-957A-4F9B-8A1C-849E74A1076A}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
@@ -979,442 +1175,1102 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2">
+        <v>12207</v>
+      </c>
+      <c r="J2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2">
-        <v>10001</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I3">
-        <v>90001</v>
+        <v>33101</v>
       </c>
       <c r="J3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>60601</v>
+        <v>90001</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>90001</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
         <v>115</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>116</v>
       </c>
-      <c r="H5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I5">
-        <v>77001</v>
-      </c>
-      <c r="J5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L5" t="s">
-        <v>119</v>
-      </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>12207</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
+      <c r="L6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6">
-        <v>19019</v>
-      </c>
-      <c r="J6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" t="s">
-        <v>128</v>
-      </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="H7" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="I7">
-        <v>85001</v>
+        <v>33101</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="I8">
-        <v>78201</v>
+        <v>90001</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>92101</v>
+        <v>90001</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>75201</v>
+        <v>12207</v>
       </c>
       <c r="J10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>33101</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>90001</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>90001</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>12207</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15">
+        <v>33101</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16">
+        <v>90001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
         <v>166</v>
       </c>
-      <c r="B11" t="s">
+      <c r="L16" t="s">
         <v>167</v>
       </c>
-      <c r="C11" t="s">
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>168</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B17" t="s">
         <v>169</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
         <v>170</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <v>90001</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s">
         <v>171</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L17" t="s">
         <v>172</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>95101</v>
-      </c>
-      <c r="J11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>173</v>
       </c>
-      <c r="L11" t="s">
+      <c r="B18" t="s">
         <v>174</v>
       </c>
-      <c r="M11" t="s">
+      <c r="C18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>12207</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19">
+        <v>33101</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20">
+        <v>90001</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="N11" t="s">
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>90001</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="s">
         <v>16</v>
+      </c>
+      <c r="N21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>193</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22">
+        <v>12207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23">
+        <v>33101</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>90001</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>90001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L25" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>12207</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" t="s">
+        <v>214</v>
+      </c>
+      <c r="L26" t="s">
+        <v>215</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1440,302 +2296,314 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5760C33-7000-4110-98F9-BA63C48711EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clate-my.sharepoint.com/personal/clate_clatent_com/Documents/Documents/GitHub/365AutomatedLab/LabSources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC19259-5004-4AB6-9A7A-942B3EF3F242}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD623F2A-8524-4DC3-87BC-2776B0A37B8B}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="20025" windowHeight="12660" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="7590" yWindow="2355" windowWidth="20025" windowHeight="12660" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="222">
   <si>
     <t>FirstName</t>
   </si>
@@ -544,21 +544,6 @@
     <t>559-555-5678</t>
   </si>
   <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Marketing Analyst</t>
-  </si>
-  <si>
-    <t>661-555-1234</t>
-  </si>
-  <si>
-    <t>661-555-5678</t>
-  </si>
-  <si>
     <t>Quinn</t>
   </si>
   <si>
@@ -643,36 +628,6 @@
     <t>727-555-5678</t>
   </si>
   <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Accounting Clerk</t>
-  </si>
-  <si>
-    <t>562-555-1234</t>
-  </si>
-  <si>
-    <t>562-555-5678</t>
-  </si>
-  <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>Foster</t>
-  </si>
-  <si>
-    <t>Marketing Assistant</t>
-  </si>
-  <si>
-    <t>951-555-1234</t>
-  </si>
-  <si>
-    <t>951-555-5678</t>
-  </si>
-  <si>
     <t>Yasmine</t>
   </si>
   <si>
@@ -730,9 +685,6 @@
     <t>ndavis</t>
   </si>
   <si>
-    <t>ptaylor</t>
-  </si>
-  <si>
     <t>qadams</t>
   </si>
   <si>
@@ -749,12 +701,6 @@
   </si>
   <si>
     <t>vyoung</t>
-  </si>
-  <si>
-    <t>whernandez</t>
-  </si>
-  <si>
-    <t>xfoster</t>
   </si>
   <si>
     <t>yprice</t>
@@ -1109,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52769B47-957A-4F9B-8A1C-849E74A1076A}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1127,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
         <v>99</v>
@@ -1190,10 +1136,10 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1225,7 +1171,7 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
         <v>93</v>
@@ -1313,7 +1259,7 @@
         <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
         <v>114</v>
@@ -1357,7 +1303,7 @@
         <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
         <v>119</v>
@@ -1366,10 +1312,10 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1401,7 +1347,7 @@
         <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
         <v>124</v>
@@ -1445,7 +1391,7 @@
         <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
         <v>128</v>
@@ -1489,7 +1435,7 @@
         <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
         <v>133</v>
@@ -1533,7 +1479,7 @@
         <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D10" t="s">
         <v>138</v>
@@ -1542,10 +1488,10 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1577,7 +1523,7 @@
         <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>142</v>
@@ -1621,7 +1567,7 @@
         <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
         <v>147</v>
@@ -1665,7 +1611,7 @@
         <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
         <v>152</v>
@@ -1709,7 +1655,7 @@
         <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
         <v>156</v>
@@ -1718,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1753,7 +1699,7 @@
         <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
         <v>160</v>
@@ -1797,7 +1743,7 @@
         <v>164</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
         <v>165</v>
@@ -1841,25 +1787,25 @@
         <v>169</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
         <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I17">
-        <v>90001</v>
+        <v>12207</v>
       </c>
       <c r="J17" t="s">
         <v>85</v>
@@ -1882,37 +1828,37 @@
         <v>173</v>
       </c>
       <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
         <v>174</v>
       </c>
-      <c r="C18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="I18">
-        <v>12207</v>
+        <v>33101</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>
       </c>
       <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
         <v>176</v>
-      </c>
-      <c r="L18" t="s">
-        <v>177</v>
       </c>
       <c r="M18" t="s">
         <v>16</v>
@@ -1923,31 +1869,31 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" t="s">
         <v>178</v>
       </c>
-      <c r="B19" t="s">
-        <v>97</v>
-      </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D19" t="s">
         <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="I19">
-        <v>33101</v>
+        <v>90001</v>
       </c>
       <c r="J19" t="s">
         <v>85</v>
@@ -1967,19 +1913,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
         <v>182</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" t="s">
         <v>183</v>
       </c>
-      <c r="C20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D20" t="s">
-        <v>184</v>
-      </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>110</v>
@@ -1997,10 +1943,10 @@
         <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s">
         <v>16</v>
@@ -2011,40 +1957,40 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>187</v>
       </c>
-      <c r="C21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
         <v>188</v>
       </c>
-      <c r="E21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I21">
-        <v>90001</v>
+        <v>12207</v>
       </c>
       <c r="J21" t="s">
         <v>85</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M21" t="s">
         <v>16</v>
@@ -2055,31 +2001,31 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="G22" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="I22">
-        <v>12207</v>
+        <v>33101</v>
       </c>
       <c r="J22" t="s">
         <v>85</v>
@@ -2105,25 +2051,25 @@
         <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
         <v>198</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="I23">
-        <v>33101</v>
+        <v>12207</v>
       </c>
       <c r="J23" t="s">
         <v>85</v>
@@ -2138,138 +2084,6 @@
         <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C24" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" t="s">
-        <v>109</v>
-      </c>
-      <c r="F24" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24">
-        <v>90001</v>
-      </c>
-      <c r="J24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K24" t="s">
-        <v>204</v>
-      </c>
-      <c r="L24" t="s">
-        <v>205</v>
-      </c>
-      <c r="M24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" t="s">
-        <v>238</v>
-      </c>
-      <c r="D25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25">
-        <v>90001</v>
-      </c>
-      <c r="J25" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
-        <v>209</v>
-      </c>
-      <c r="L25" t="s">
-        <v>210</v>
-      </c>
-      <c r="M25" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>211</v>
-      </c>
-      <c r="B26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" t="s">
-        <v>239</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26">
-        <v>12207</v>
-      </c>
-      <c r="J26" t="s">
-        <v>85</v>
-      </c>
-      <c r="K26" t="s">
-        <v>214</v>
-      </c>
-      <c r="L26" t="s">
-        <v>215</v>
-      </c>
-      <c r="M26" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2283,7 +2097,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2598,12 +2412,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5760C33-7000-4110-98F9-BA63C48711EB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clate-my.sharepoint.com/personal/clate_clatent_com/Documents/Documents/GitHub/365AutomatedLab/LabSources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{FC51030A-8E3B-469F-A842-5F697AD32D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD623F2A-8524-4DC3-87BC-2776B0A37B8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207FE33-8A15-410C-9829-3DC42B7B1EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7590" yWindow="2355" windowWidth="20025" windowHeight="12660" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="14580" yWindow="3555" windowWidth="13365" windowHeight="12645" activeTab="3" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Groups" sheetId="2" r:id="rId2"/>
     <sheet name="NY-IT" sheetId="3" r:id="rId3"/>
+    <sheet name="Teams" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="238">
   <si>
     <t>FirstName</t>
   </si>
@@ -704,16 +705,71 @@
   </si>
   <si>
     <t>yprice</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>TeamDescription</t>
+  </si>
+  <si>
+    <t>Channel1Name</t>
+  </si>
+  <si>
+    <t>Channel2Name</t>
+  </si>
+  <si>
+    <t>MarketingTeam</t>
+  </si>
+  <si>
+    <t>Team for all marketing Projects</t>
+  </si>
+  <si>
+    <t>Campaigns</t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>DeveloperTeam</t>
+  </si>
+  <si>
+    <t>Team for software Devs</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
+    <t>Sprint Meetings</t>
+  </si>
+  <si>
+    <t>SalesTeam</t>
+  </si>
+  <si>
+    <t>Team for sales dept</t>
+  </si>
+  <si>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>Client Meetings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -739,8 +795,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1057,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52769B47-957A-4F9B-8A1C-849E74A1076A}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2513,4 +2570,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEBB1DA-38E9-45D2-BDE5-11FE78334DE3}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9207FE33-8A15-410C-9829-3DC42B7B1EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD58EB-E763-4855-B07D-A5DD53B988A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="3555" windowWidth="13365" windowHeight="12645" activeTab="3" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="26610" yWindow="2640" windowWidth="13500" windowHeight="12825" activeTab="4" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Groups" sheetId="2" r:id="rId2"/>
     <sheet name="NY-IT" sheetId="3" r:id="rId3"/>
     <sheet name="Teams" sheetId="4" r:id="rId4"/>
+    <sheet name="Sites" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
   <si>
     <t>FirstName</t>
   </si>
@@ -753,13 +754,82 @@
   </si>
   <si>
     <t>Client Meetings</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>SiteType</t>
+  </si>
+  <si>
+    <t>EHS#1</t>
+  </si>
+  <si>
+    <t>TeamSite</t>
+  </si>
+  <si>
+    <t>Blog25</t>
+  </si>
+  <si>
+    <t>BLOG#0</t>
+  </si>
+  <si>
+    <t>CommunicationSite</t>
+  </si>
+  <si>
+    <t>Project25</t>
+  </si>
+  <si>
+    <t>PROJECTSITE#0</t>
+  </si>
+  <si>
+    <t>TeamSiteWithoutMicrosoft365Group</t>
+  </si>
+  <si>
+    <t>Community25</t>
+  </si>
+  <si>
+    <t>COMMUNITY#0</t>
+  </si>
+  <si>
+    <t>TestTeam25</t>
+  </si>
+  <si>
+    <t>TestCommunication25</t>
+  </si>
+  <si>
+    <t>TestProjectteamwithout36255</t>
+  </si>
+  <si>
+    <t>TestCommunityTeam25</t>
+  </si>
+  <si>
+    <t>Test Team Site 25</t>
+  </si>
+  <si>
+    <t>Test Blog 25</t>
+  </si>
+  <si>
+    <t>Project Test project site 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test Community Site 25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,6 +843,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -795,9 +871,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2576,7 +2660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEBB1DA-38E9-45D2-BDE5-11FE78334DE3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2647,4 +2731,127 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B2B338-EC44-4B0B-9532-D06A3843D7DA}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CD58EB-E763-4855-B07D-A5DD53B988A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334D810-DBBB-4AA0-A660-0BF3DF9FBD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26610" yWindow="2640" windowWidth="13500" windowHeight="12825" activeTab="4" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="26955" yWindow="2985" windowWidth="13500" windowHeight="12825" activeTab="4" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -732,30 +732,6 @@
     <t>Brainstorming</t>
   </si>
   <si>
-    <t>DeveloperTeam</t>
-  </si>
-  <si>
-    <t>Team for software Devs</t>
-  </si>
-  <si>
-    <t>Backlogs</t>
-  </si>
-  <si>
-    <t>Sprint Meetings</t>
-  </si>
-  <si>
-    <t>SalesTeam</t>
-  </si>
-  <si>
-    <t>Team for sales dept</t>
-  </si>
-  <si>
-    <t>Leads</t>
-  </si>
-  <si>
-    <t>Client Meetings</t>
-  </si>
-  <si>
     <t>Url</t>
   </si>
   <si>
@@ -819,10 +795,34 @@
     <t>Test Blog 25</t>
   </si>
   <si>
-    <t>Project Test project site 25</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Test Community Site 25</t>
+    <t>ITTeam</t>
+  </si>
+  <si>
+    <t>Team for IT</t>
+  </si>
+  <si>
+    <t>Incidents</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>AccountingTeam</t>
+  </si>
+  <si>
+    <t>Team for Accounting</t>
+  </si>
+  <si>
+    <t>Contracts</t>
+  </si>
+  <si>
+    <t>Agreements</t>
+  </si>
+  <si>
+    <t>Test project site 25</t>
+  </si>
+  <si>
+    <t>Test Community Site 25</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -881,7 +881,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2661,7 +2660,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,30 +2701,30 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2737,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,70 +2752,70 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>253</v>
+      <c r="A2" t="s">
+        <v>245</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>245</v>
+      <c r="A3" t="s">
+        <v>237</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>248</v>
+      <c r="A4" t="s">
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
@@ -2825,18 +2824,18 @@
         <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>251</v>
+      <c r="A5" t="s">
+        <v>243</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
@@ -2845,10 +2844,10 @@
         <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334D810-DBBB-4AA0-A660-0BF3DF9FBD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4537AB4-FB20-463F-ACEA-C4D7A6815205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26955" yWindow="2985" windowWidth="13500" windowHeight="12825" activeTab="4" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="660" yWindow="8985" windowWidth="16680" windowHeight="12825" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="262">
   <si>
     <t>FirstName</t>
   </si>
@@ -171,9 +171,6 @@
     <t>MARKETING 365 GROUP</t>
   </si>
   <si>
-    <t>MARKETINGGROUP</t>
-  </si>
-  <si>
     <t>Marketing 365 Group</t>
   </si>
   <si>
@@ -823,6 +820,12 @@
   </si>
   <si>
     <t>Test Community Site 25</t>
+  </si>
+  <si>
+    <t>IT365GROUP</t>
+  </si>
+  <si>
+    <t>MARKETING365GROUP</t>
   </si>
 </sst>
 </file>
@@ -1261,25 +1264,25 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" t="s">
         <v>187</v>
-      </c>
-      <c r="G2" t="s">
-        <v>188</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1288,13 +1291,13 @@
         <v>12207</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" t="s">
         <v>100</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -1305,40 +1308,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
         <v>102</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>103</v>
-      </c>
-      <c r="H3" t="s">
-        <v>104</v>
       </c>
       <c r="I3">
         <v>33101</v>
       </c>
       <c r="J3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
         <v>105</v>
-      </c>
-      <c r="L3" t="s">
-        <v>106</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -1349,22 +1352,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>108</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -1376,13 +1379,13 @@
         <v>90001</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" t="s">
         <v>111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>112</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
@@ -1393,22 +1396,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1420,13 +1423,13 @@
         <v>90001</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" t="s">
         <v>115</v>
-      </c>
-      <c r="L5" t="s">
-        <v>116</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -1437,25 +1440,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" t="s">
         <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
       <c r="F6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" t="s">
         <v>187</v>
-      </c>
-      <c r="G6" t="s">
-        <v>188</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1464,13 +1467,13 @@
         <v>12207</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L6" t="s">
         <v>120</v>
-      </c>
-      <c r="L6" t="s">
-        <v>121</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -1481,40 +1484,40 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="C7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" t="s">
-        <v>124</v>
-      </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
         <v>102</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>103</v>
-      </c>
-      <c r="H7" t="s">
-        <v>104</v>
       </c>
       <c r="I7">
         <v>33101</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
         <v>125</v>
-      </c>
-      <c r="L7" t="s">
-        <v>126</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1525,22 +1528,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
         <v>127</v>
       </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
       <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
         <v>109</v>
-      </c>
-      <c r="F8" t="s">
-        <v>110</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1552,13 +1555,13 @@
         <v>90001</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
         <v>129</v>
-      </c>
-      <c r="L8" t="s">
-        <v>130</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -1569,22 +1572,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" t="s">
-        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1596,13 +1599,13 @@
         <v>90001</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s">
         <v>134</v>
-      </c>
-      <c r="L9" t="s">
-        <v>135</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -1613,25 +1616,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
         <v>136</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" t="s">
         <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" t="s">
         <v>187</v>
-      </c>
-      <c r="G10" t="s">
-        <v>188</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1640,13 +1643,13 @@
         <v>12207</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s">
         <v>139</v>
-      </c>
-      <c r="L10" t="s">
-        <v>140</v>
       </c>
       <c r="M10" t="s">
         <v>16</v>
@@ -1657,40 +1660,40 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" t="s">
         <v>141</v>
       </c>
-      <c r="C11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" t="s">
-        <v>142</v>
-      </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
         <v>102</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>103</v>
-      </c>
-      <c r="H11" t="s">
-        <v>104</v>
       </c>
       <c r="I11">
         <v>33101</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s">
         <v>143</v>
-      </c>
-      <c r="L11" t="s">
-        <v>144</v>
       </c>
       <c r="M11" t="s">
         <v>16</v>
@@ -1701,22 +1704,22 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
         <v>145</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
         <v>146</v>
       </c>
-      <c r="C12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
-      </c>
       <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
         <v>109</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1728,13 +1731,13 @@
         <v>90001</v>
       </c>
       <c r="J12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
         <v>148</v>
-      </c>
-      <c r="L12" t="s">
-        <v>149</v>
       </c>
       <c r="M12" t="s">
         <v>16</v>
@@ -1745,22 +1748,22 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
         <v>151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1772,13 +1775,13 @@
         <v>90001</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L13" t="s">
         <v>153</v>
-      </c>
-      <c r="L13" t="s">
-        <v>154</v>
       </c>
       <c r="M13" t="s">
         <v>16</v>
@@ -1789,25 +1792,25 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" t="s">
         <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
         <v>187</v>
-      </c>
-      <c r="G14" t="s">
-        <v>188</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1816,13 +1819,13 @@
         <v>12207</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
         <v>157</v>
-      </c>
-      <c r="L14" t="s">
-        <v>158</v>
       </c>
       <c r="M14" t="s">
         <v>16</v>
@@ -1833,40 +1836,40 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" t="s">
         <v>159</v>
       </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
         <v>102</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>103</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
       </c>
       <c r="I15">
         <v>33101</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
         <v>161</v>
-      </c>
-      <c r="L15" t="s">
-        <v>162</v>
       </c>
       <c r="M15" t="s">
         <v>16</v>
@@ -1877,22 +1880,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="s">
         <v>163</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
         <v>164</v>
       </c>
-      <c r="C16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
       <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
         <v>109</v>
-      </c>
-      <c r="F16" t="s">
-        <v>110</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1904,13 +1907,13 @@
         <v>90001</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
         <v>166</v>
-      </c>
-      <c r="L16" t="s">
-        <v>167</v>
       </c>
       <c r="M16" t="s">
         <v>16</v>
@@ -1921,25 +1924,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" t="s">
         <v>168</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" t="s">
-        <v>170</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" t="s">
         <v>187</v>
-      </c>
-      <c r="G17" t="s">
-        <v>188</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1948,13 +1951,13 @@
         <v>12207</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="L17" t="s">
         <v>171</v>
-      </c>
-      <c r="L17" t="s">
-        <v>172</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
@@ -1965,40 +1968,40 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
         <v>173</v>
       </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" t="s">
-        <v>174</v>
-      </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
         <v>102</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>103</v>
-      </c>
-      <c r="H18" t="s">
-        <v>104</v>
       </c>
       <c r="I18">
         <v>33101</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
         <v>175</v>
-      </c>
-      <c r="L18" t="s">
-        <v>176</v>
       </c>
       <c r="M18" t="s">
         <v>16</v>
@@ -2009,22 +2012,22 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
         <v>177</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
         <v>178</v>
       </c>
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
       <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
         <v>109</v>
-      </c>
-      <c r="F19" t="s">
-        <v>110</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -2036,13 +2039,13 @@
         <v>90001</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
         <v>180</v>
-      </c>
-      <c r="L19" t="s">
-        <v>181</v>
       </c>
       <c r="M19" t="s">
         <v>16</v>
@@ -2053,22 +2056,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
         <v>182</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" t="s">
-        <v>183</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -2080,13 +2083,13 @@
         <v>90001</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
         <v>180</v>
-      </c>
-      <c r="L20" t="s">
-        <v>181</v>
       </c>
       <c r="M20" t="s">
         <v>16</v>
@@ -2097,25 +2100,25 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" t="s">
         <v>184</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" t="s">
         <v>185</v>
-      </c>
-      <c r="C21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D21" t="s">
-        <v>186</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
         <v>187</v>
-      </c>
-      <c r="G21" t="s">
-        <v>188</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2124,13 +2127,13 @@
         <v>12207</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
         <v>189</v>
-      </c>
-      <c r="L21" t="s">
-        <v>190</v>
       </c>
       <c r="M21" t="s">
         <v>16</v>
@@ -2141,40 +2144,40 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
         <v>191</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" t="s">
         <v>192</v>
       </c>
-      <c r="C22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" t="s">
-        <v>193</v>
-      </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" t="s">
         <v>102</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>103</v>
-      </c>
-      <c r="H22" t="s">
-        <v>104</v>
       </c>
       <c r="I22">
         <v>33101</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s">
         <v>194</v>
-      </c>
-      <c r="L22" t="s">
-        <v>195</v>
       </c>
       <c r="M22" t="s">
         <v>16</v>
@@ -2185,25 +2188,25 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
         <v>196</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s">
         <v>197</v>
-      </c>
-      <c r="C23" t="s">
-        <v>221</v>
-      </c>
-      <c r="D23" t="s">
-        <v>198</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
       <c r="F23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" t="s">
         <v>187</v>
-      </c>
-      <c r="G23" t="s">
-        <v>188</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2212,13 +2215,13 @@
         <v>12207</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
+        <v>198</v>
+      </c>
+      <c r="L23" t="s">
         <v>199</v>
-      </c>
-      <c r="L23" t="s">
-        <v>200</v>
       </c>
       <c r="M23" t="s">
         <v>16</v>
@@ -2236,15 +2239,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6396F3-6D7B-46A0-9EAC-B306C37237B1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2270,7 +2274,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -2340,10 +2344,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -2351,13 +2355,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -2365,13 +2369,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
@@ -2379,13 +2383,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -2393,27 +2397,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
         <v>55</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -2421,13 +2425,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
@@ -2435,27 +2439,27 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>64</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
@@ -2463,13 +2467,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
@@ -2477,13 +2481,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>35</v>
@@ -2491,58 +2495,58 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>76</v>
       </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
         <v>78</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" t="s">
-        <v>80</v>
-      </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2624,30 +2628,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2673,58 +2677,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
         <v>222</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>223</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>224</v>
-      </c>
-      <c r="D1" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
         <v>226</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>227</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>228</v>
-      </c>
-      <c r="D2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
         <v>251</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>252</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>253</v>
-      </c>
-      <c r="D3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" t="s">
         <v>255</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>256</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B2B338-EC44-4B0B-9532-D06A3843D7DA}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2752,102 +2756,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4537AB4-FB20-463F-ACEA-C4D7A6815205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB9EA7C-0599-4FB1-B176-64F9301A55B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="8985" windowWidth="16680" windowHeight="12825" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
   <si>
     <t>FirstName</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>IT 365 GROUP</t>
-  </si>
-  <si>
-    <t>ITGROUP</t>
   </si>
   <si>
     <t>IT 365 Group</t>
@@ -1264,25 +1261,25 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
         <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>187</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -1291,13 +1288,13 @@
         <v>12207</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
         <v>99</v>
-      </c>
-      <c r="L2" t="s">
-        <v>100</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -1308,40 +1305,40 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
         <v>101</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
       </c>
       <c r="I3">
         <v>33101</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
         <v>104</v>
-      </c>
-      <c r="L3" t="s">
-        <v>105</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -1352,22 +1349,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>107</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>109</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -1379,13 +1376,13 @@
         <v>90001</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
         <v>110</v>
-      </c>
-      <c r="L4" t="s">
-        <v>111</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
@@ -1396,22 +1393,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" t="s">
         <v>112</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -1423,13 +1420,13 @@
         <v>90001</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" t="s">
         <v>114</v>
-      </c>
-      <c r="L5" t="s">
-        <v>115</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
@@ -1440,25 +1437,25 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
         <v>116</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
         <v>117</v>
       </c>
-      <c r="C6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" t="s">
-        <v>118</v>
-      </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G6" t="s">
         <v>186</v>
-      </c>
-      <c r="G6" t="s">
-        <v>187</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -1467,13 +1464,13 @@
         <v>12207</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" t="s">
         <v>119</v>
-      </c>
-      <c r="L6" t="s">
-        <v>120</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
@@ -1484,40 +1481,40 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
         <v>121</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>103</v>
       </c>
       <c r="I7">
         <v>33101</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s">
         <v>124</v>
-      </c>
-      <c r="L7" t="s">
-        <v>125</v>
       </c>
       <c r="M7" t="s">
         <v>16</v>
@@ -1528,22 +1525,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
         <v>126</v>
       </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
       <c r="E8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" t="s">
         <v>108</v>
-      </c>
-      <c r="F8" t="s">
-        <v>109</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1555,13 +1552,13 @@
         <v>90001</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s">
         <v>128</v>
-      </c>
-      <c r="L8" t="s">
-        <v>129</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -1572,22 +1569,22 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" t="s">
-        <v>132</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1599,13 +1596,13 @@
         <v>90001</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
         <v>133</v>
-      </c>
-      <c r="L9" t="s">
-        <v>134</v>
       </c>
       <c r="M9" t="s">
         <v>16</v>
@@ -1616,25 +1613,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" t="s">
         <v>136</v>
       </c>
-      <c r="C10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" t="s">
-        <v>137</v>
-      </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" t="s">
         <v>186</v>
-      </c>
-      <c r="G10" t="s">
-        <v>187</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -1643,13 +1640,13 @@
         <v>12207</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" t="s">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s">
         <v>138</v>
-      </c>
-      <c r="L10" t="s">
-        <v>139</v>
       </c>
       <c r="M10" t="s">
         <v>16</v>
@@ -1660,40 +1657,40 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" t="s">
         <v>140</v>
       </c>
-      <c r="C11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
-      </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
         <v>101</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
       </c>
       <c r="I11">
         <v>33101</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" t="s">
         <v>142</v>
-      </c>
-      <c r="L11" t="s">
-        <v>143</v>
       </c>
       <c r="M11" t="s">
         <v>16</v>
@@ -1704,22 +1701,22 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
       <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
         <v>108</v>
-      </c>
-      <c r="F12" t="s">
-        <v>109</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1731,13 +1728,13 @@
         <v>90001</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s">
         <v>147</v>
-      </c>
-      <c r="L12" t="s">
-        <v>148</v>
       </c>
       <c r="M12" t="s">
         <v>16</v>
@@ -1748,22 +1745,22 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
         <v>149</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" t="s">
         <v>150</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D13" t="s">
-        <v>151</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1775,13 +1772,13 @@
         <v>90001</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
         <v>152</v>
-      </c>
-      <c r="L13" t="s">
-        <v>153</v>
       </c>
       <c r="M13" t="s">
         <v>16</v>
@@ -1792,25 +1789,25 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
         <v>154</v>
       </c>
-      <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
-      </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" t="s">
         <v>186</v>
-      </c>
-      <c r="G14" t="s">
-        <v>187</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
@@ -1819,13 +1816,13 @@
         <v>12207</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" t="s">
-        <v>157</v>
       </c>
       <c r="M14" t="s">
         <v>16</v>
@@ -1836,40 +1833,40 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
         <v>158</v>
       </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>213</v>
-      </c>
-      <c r="D15" t="s">
-        <v>159</v>
-      </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
         <v>101</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>103</v>
       </c>
       <c r="I15">
         <v>33101</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
         <v>160</v>
-      </c>
-      <c r="L15" t="s">
-        <v>161</v>
       </c>
       <c r="M15" t="s">
         <v>16</v>
@@ -1880,22 +1877,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" t="s">
         <v>163</v>
       </c>
-      <c r="C16" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" t="s">
-        <v>164</v>
-      </c>
       <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
       </c>
       <c r="G16" t="s">
         <v>18</v>
@@ -1907,13 +1904,13 @@
         <v>90001</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
         <v>165</v>
-      </c>
-      <c r="L16" t="s">
-        <v>166</v>
       </c>
       <c r="M16" t="s">
         <v>16</v>
@@ -1924,25 +1921,25 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
         <v>167</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
         <v>168</v>
       </c>
-      <c r="C17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" t="s">
-        <v>169</v>
-      </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" t="s">
         <v>186</v>
-      </c>
-      <c r="G17" t="s">
-        <v>187</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1951,13 +1948,13 @@
         <v>12207</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
         <v>170</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
       </c>
       <c r="M17" t="s">
         <v>16</v>
@@ -1968,40 +1965,40 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
         <v>172</v>
       </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" t="s">
-        <v>173</v>
-      </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>102</v>
-      </c>
-      <c r="H18" t="s">
-        <v>103</v>
       </c>
       <c r="I18">
         <v>33101</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s">
         <v>174</v>
-      </c>
-      <c r="L18" t="s">
-        <v>175</v>
       </c>
       <c r="M18" t="s">
         <v>16</v>
@@ -2012,22 +2009,22 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" t="s">
         <v>176</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
         <v>177</v>
       </c>
-      <c r="C19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D19" t="s">
-        <v>178</v>
-      </c>
       <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" t="s">
-        <v>109</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
@@ -2039,13 +2036,13 @@
         <v>90001</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
         <v>179</v>
-      </c>
-      <c r="L19" t="s">
-        <v>180</v>
       </c>
       <c r="M19" t="s">
         <v>16</v>
@@ -2056,22 +2053,22 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
         <v>181</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" t="s">
-        <v>182</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -2083,13 +2080,13 @@
         <v>90001</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s">
         <v>179</v>
-      </c>
-      <c r="L20" t="s">
-        <v>180</v>
       </c>
       <c r="M20" t="s">
         <v>16</v>
@@ -2100,25 +2097,25 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
         <v>183</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
         <v>184</v>
       </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" t="s">
         <v>185</v>
       </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>186</v>
-      </c>
-      <c r="G21" t="s">
-        <v>187</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
@@ -2127,13 +2124,13 @@
         <v>12207</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s">
         <v>188</v>
-      </c>
-      <c r="L21" t="s">
-        <v>189</v>
       </c>
       <c r="M21" t="s">
         <v>16</v>
@@ -2144,40 +2141,40 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
         <v>190</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
         <v>191</v>
       </c>
-      <c r="C22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D22" t="s">
-        <v>192</v>
-      </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G22" t="s">
         <v>101</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>102</v>
-      </c>
-      <c r="H22" t="s">
-        <v>103</v>
       </c>
       <c r="I22">
         <v>33101</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s">
         <v>193</v>
-      </c>
-      <c r="L22" t="s">
-        <v>194</v>
       </c>
       <c r="M22" t="s">
         <v>16</v>
@@ -2188,25 +2185,25 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s">
         <v>195</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" t="s">
         <v>196</v>
       </c>
-      <c r="C23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
-      </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
         <v>186</v>
-      </c>
-      <c r="G23" t="s">
-        <v>187</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -2215,13 +2212,13 @@
         <v>12207</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" t="s">
+        <v>197</v>
+      </c>
+      <c r="L23" t="s">
         <v>198</v>
-      </c>
-      <c r="L23" t="s">
-        <v>199</v>
       </c>
       <c r="M23" t="s">
         <v>16</v>
@@ -2274,279 +2271,279 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>72</v>
       </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>78</v>
       </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
         <v>80</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2556,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,69 +2586,69 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2677,58 +2674,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>222</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>223</v>
-      </c>
-      <c r="D1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
         <v>225</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>226</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>227</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
         <v>250</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>251</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
         <v>254</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>255</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>256</v>
-      </c>
-      <c r="D4" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2756,102 +2753,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="4">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="C3" s="4">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C4" s="4">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB9EA7C-0599-4FB1-B176-64F9301A55B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9FA72-2AE5-4464-9104-41D72992FF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="8985" windowWidth="16680" windowHeight="12825" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="23130" yWindow="1890" windowWidth="22185" windowHeight="13065" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="265">
   <si>
     <t>FirstName</t>
   </si>
@@ -823,6 +823,18 @@
   </si>
   <si>
     <t>MARKETING365GROUP</t>
+  </si>
+  <si>
+    <t>HRTeam</t>
+  </si>
+  <si>
+    <t>Team for HR</t>
+  </si>
+  <si>
+    <t>Onboarding</t>
+  </si>
+  <si>
+    <t>Confidential</t>
   </si>
 </sst>
 </file>
@@ -2658,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEBB1DA-38E9-45D2-BDE5-11FE78334DE3}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,6 +2740,20 @@
         <v>256</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2738,7 +2764,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9FA72-2AE5-4464-9104-41D72992FF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6B854-CCBC-446A-8C76-41B9C0DAFB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23130" yWindow="1890" windowWidth="22185" windowHeight="13065" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="1605" yWindow="17355" windowWidth="15030" windowHeight="13065" activeTab="3" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="271">
   <si>
     <t>FirstName</t>
   </si>
@@ -835,6 +835,24 @@
   </si>
   <si>
     <t>Confidential</t>
+  </si>
+  <si>
+    <t>TeamType</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Channel1Type</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>Channel2Type</t>
   </si>
 </sst>
 </file>
@@ -2248,7 +2266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6396F3-6D7B-46A0-9EAC-B306C37237B1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2670,21 +2688,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEBB1DA-38E9-45D2-BDE5-11FE78334DE3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -2692,13 +2712,22 @@
         <v>221</v>
       </c>
       <c r="C1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -2706,13 +2735,22 @@
         <v>225</v>
       </c>
       <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
         <v>226</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2720,13 +2758,22 @@
         <v>250</v>
       </c>
       <c r="C3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
         <v>251</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -2734,13 +2781,22 @@
         <v>254</v>
       </c>
       <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
         <v>255</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -2748,10 +2804,19 @@
         <v>262</v>
       </c>
       <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
         <v>263</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" t="s">
         <v>264</v>
+      </c>
+      <c r="G5" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6B854-CCBC-446A-8C76-41B9C0DAFB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62A3E0-CE27-4AE6-AFFC-A26BE94B81FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="17355" windowWidth="15030" windowHeight="13065" activeTab="3" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="19710" yWindow="1350" windowWidth="22740" windowHeight="13590" activeTab="3" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="281">
   <si>
     <t>FirstName</t>
   </si>
@@ -853,6 +853,36 @@
   </si>
   <si>
     <t>Channel2Type</t>
+  </si>
+  <si>
+    <t>Channel1Description</t>
+  </si>
+  <si>
+    <t>Channel for all Marketing Campaigns</t>
+  </si>
+  <si>
+    <t>Channel2Description</t>
+  </si>
+  <si>
+    <t>Channel for Brainstorming</t>
+  </si>
+  <si>
+    <t>Channel for all agreements</t>
+  </si>
+  <si>
+    <t>A private channel for confidential information</t>
+  </si>
+  <si>
+    <t>A private channel for projects</t>
+  </si>
+  <si>
+    <t>Channel for all Incidents</t>
+  </si>
+  <si>
+    <t>Channel for all contracts</t>
+  </si>
+  <si>
+    <t>Channel for all onboarding</t>
   </si>
 </sst>
 </file>
@@ -929,9 +959,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -969,7 +999,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1075,7 +1105,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1217,7 +1247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2688,10 +2718,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEBB1DA-38E9-45D2-BDE5-11FE78334DE3}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,11 +2730,13 @@
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -2718,16 +2750,22 @@
         <v>222</v>
       </c>
       <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
         <v>267</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>223</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -2741,16 +2779,22 @@
         <v>226</v>
       </c>
       <c r="E2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" t="s">
         <v>268</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>227</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2764,16 +2808,22 @@
         <v>251</v>
       </c>
       <c r="E3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
         <v>269</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>252</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -2787,16 +2837,22 @@
         <v>255</v>
       </c>
       <c r="E4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" t="s">
         <v>269</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>256</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -2810,12 +2866,18 @@
         <v>263</v>
       </c>
       <c r="E5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F5" t="s">
         <v>269</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>264</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" t="s">
         <v>269</v>
       </c>
     </row>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D62A3E0-CE27-4AE6-AFFC-A26BE94B81FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4822D-C922-4A83-A490-89262768CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19710" yWindow="1350" windowWidth="22740" windowHeight="13590" activeTab="3" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="21195" yWindow="3015" windowWidth="23085" windowHeight="13065" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="282">
   <si>
     <t>FirstName</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>Channel for all onboarding</t>
+  </si>
+  <si>
+    <t>ManagedBy</t>
   </si>
 </sst>
 </file>
@@ -2294,10 +2297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6396F3-6D7B-46A0-9EAC-B306C37237B1}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,10 +2309,11 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2323,10 +2327,13 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2337,10 +2344,13 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2351,10 +2361,13 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2365,10 +2378,13 @@
         <v>33</v>
       </c>
       <c r="E4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2379,10 +2395,13 @@
         <v>37</v>
       </c>
       <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2393,10 +2412,13 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2406,11 +2428,11 @@
       <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2420,11 +2442,11 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2434,11 +2456,11 @@
       <c r="C9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2449,10 +2471,13 @@
         <v>49</v>
       </c>
       <c r="E10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2463,10 +2488,13 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2477,10 +2505,13 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2491,10 +2522,13 @@
         <v>57</v>
       </c>
       <c r="E13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2504,11 +2538,11 @@
       <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2519,10 +2553,13 @@
         <v>63</v>
       </c>
       <c r="E15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2533,10 +2570,13 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2547,10 +2587,13 @@
         <v>69</v>
       </c>
       <c r="E17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2561,10 +2604,13 @@
         <v>72</v>
       </c>
       <c r="E18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -2575,10 +2621,13 @@
         <v>75</v>
       </c>
       <c r="E19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2589,10 +2638,13 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2603,6 +2655,9 @@
         <v>81</v>
       </c>
       <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2720,7 +2775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCEBB1DA-38E9-45D2-BDE5-11FE78334DE3}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubDell\365AutomatedLab\LabSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Clate\Documents\GitHub\Testing\365\New User\Adding Params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC4822D-C922-4A83-A490-89262768CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93F71A-7B07-41BE-BD9E-72CD58BE1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21195" yWindow="3015" windowWidth="23085" windowHeight="13065" activeTab="1" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="4815" yWindow="655" windowWidth="9110" windowHeight="9020" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="314">
   <si>
     <t>FirstName</t>
   </si>
@@ -886,13 +886,112 @@
   </si>
   <si>
     <t>ManagedBy</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>EmployeeHireDate</t>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+  </si>
+  <si>
+    <t>EmployeeType</t>
+  </si>
+  <si>
+    <t>Testing Comp</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>FaxNumber</t>
+  </si>
+  <si>
+    <t>212-555-7777</t>
+  </si>
+  <si>
+    <t>212-555-7778</t>
+  </si>
+  <si>
+    <t>212-555-7779</t>
+  </si>
+  <si>
+    <t>212-555-7780</t>
+  </si>
+  <si>
+    <t>212-555-7781</t>
+  </si>
+  <si>
+    <t>212-555-7782</t>
+  </si>
+  <si>
+    <t>212-555-7783</t>
+  </si>
+  <si>
+    <t>212-555-7784</t>
+  </si>
+  <si>
+    <t>212-555-7785</t>
+  </si>
+  <si>
+    <t>212-555-7786</t>
+  </si>
+  <si>
+    <t>212-555-7787</t>
+  </si>
+  <si>
+    <t>212-555-7788</t>
+  </si>
+  <si>
+    <t>212-555-7789</t>
+  </si>
+  <si>
+    <t>212-555-7790</t>
+  </si>
+  <si>
+    <t>212-555-7791</t>
+  </si>
+  <si>
+    <t>212-555-7792</t>
+  </si>
+  <si>
+    <t>212-555-7793</t>
+  </si>
+  <si>
+    <t>212-555-7794</t>
+  </si>
+  <si>
+    <t>212-555-7795</t>
+  </si>
+  <si>
+    <t>212-555-7796</t>
+  </si>
+  <si>
+    <t>212-555-7797</t>
+  </si>
+  <si>
+    <t>212-555-7798</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +1011,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -934,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -944,6 +1055,11 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1258,27 +1374,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52769B47-957A-4F9B-8A1C-849E74A1076A}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="7"/>
+    <col min="11" max="11" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1328125" customWidth="1"/>
+    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.86328125" customWidth="1"/>
+    <col min="16" max="16" width="15.953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1424,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1316,13 +1437,28 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1347,7 +1483,7 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>12207</v>
       </c>
       <c r="J2" t="s">
@@ -1360,13 +1496,28 @@
         <v>99</v>
       </c>
       <c r="M2" t="s">
+        <v>292</v>
+      </c>
+      <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="6">
+        <v>45407</v>
+      </c>
+      <c r="Q2">
+        <v>12345</v>
+      </c>
+      <c r="R2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1391,7 +1542,7 @@
       <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>33101</v>
       </c>
       <c r="J3" t="s">
@@ -1404,13 +1555,28 @@
         <v>104</v>
       </c>
       <c r="M3" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>286</v>
+      </c>
+      <c r="P3" s="6">
+        <v>45408</v>
+      </c>
+      <c r="Q3">
+        <v>12346</v>
+      </c>
+      <c r="R3" t="s">
+        <v>288</v>
+      </c>
+      <c r="S3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -1435,7 +1601,7 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>90001</v>
       </c>
       <c r="J4" t="s">
@@ -1448,13 +1614,28 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
+        <v>294</v>
+      </c>
+      <c r="N4" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>286</v>
+      </c>
+      <c r="P4" s="6">
+        <v>45409</v>
+      </c>
+      <c r="Q4">
+        <v>12347</v>
+      </c>
+      <c r="R4" t="s">
+        <v>289</v>
+      </c>
+      <c r="S4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1479,7 +1660,7 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>90001</v>
       </c>
       <c r="J5" t="s">
@@ -1492,13 +1673,28 @@
         <v>114</v>
       </c>
       <c r="M5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N5" t="s">
         <v>16</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q5">
+        <v>12348</v>
+      </c>
+      <c r="R5" t="s">
+        <v>290</v>
+      </c>
+      <c r="S5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1523,7 +1719,7 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>12207</v>
       </c>
       <c r="J6" t="s">
@@ -1536,13 +1732,28 @@
         <v>119</v>
       </c>
       <c r="M6" t="s">
+        <v>296</v>
+      </c>
+      <c r="N6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
+        <v>286</v>
+      </c>
+      <c r="P6" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q6">
+        <v>12349</v>
+      </c>
+      <c r="R6" t="s">
+        <v>287</v>
+      </c>
+      <c r="S6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1567,7 +1778,7 @@
       <c r="H7" t="s">
         <v>102</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>33101</v>
       </c>
       <c r="J7" t="s">
@@ -1580,13 +1791,28 @@
         <v>124</v>
       </c>
       <c r="M7" t="s">
+        <v>297</v>
+      </c>
+      <c r="N7" t="s">
         <v>16</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q7">
+        <v>12350</v>
+      </c>
+      <c r="R7" t="s">
+        <v>288</v>
+      </c>
+      <c r="S7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1611,7 +1837,7 @@
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>90001</v>
       </c>
       <c r="J8" t="s">
@@ -1624,13 +1850,28 @@
         <v>128</v>
       </c>
       <c r="M8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" t="s">
         <v>16</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q8">
+        <v>12351</v>
+      </c>
+      <c r="R8" t="s">
+        <v>289</v>
+      </c>
+      <c r="S8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1655,7 +1896,7 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>90001</v>
       </c>
       <c r="J9" t="s">
@@ -1668,13 +1909,28 @@
         <v>133</v>
       </c>
       <c r="M9" t="s">
+        <v>299</v>
+      </c>
+      <c r="N9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q9">
+        <v>12352</v>
+      </c>
+      <c r="R9" t="s">
+        <v>290</v>
+      </c>
+      <c r="S9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -1699,7 +1955,7 @@
       <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>12207</v>
       </c>
       <c r="J10" t="s">
@@ -1712,13 +1968,28 @@
         <v>138</v>
       </c>
       <c r="M10" t="s">
+        <v>300</v>
+      </c>
+      <c r="N10" t="s">
         <v>16</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
+        <v>286</v>
+      </c>
+      <c r="P10" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q10">
+        <v>12353</v>
+      </c>
+      <c r="R10" t="s">
+        <v>287</v>
+      </c>
+      <c r="S10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -1743,7 +2014,7 @@
       <c r="H11" t="s">
         <v>102</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>33101</v>
       </c>
       <c r="J11" t="s">
@@ -1756,13 +2027,28 @@
         <v>142</v>
       </c>
       <c r="M11" t="s">
+        <v>301</v>
+      </c>
+      <c r="N11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q11">
+        <v>12354</v>
+      </c>
+      <c r="R11" t="s">
+        <v>288</v>
+      </c>
+      <c r="S11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -1787,7 +2073,7 @@
       <c r="H12" t="s">
         <v>19</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>90001</v>
       </c>
       <c r="J12" t="s">
@@ -1800,13 +2086,28 @@
         <v>147</v>
       </c>
       <c r="M12" t="s">
+        <v>302</v>
+      </c>
+      <c r="N12" t="s">
         <v>16</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
+        <v>286</v>
+      </c>
+      <c r="P12" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q12">
+        <v>12355</v>
+      </c>
+      <c r="R12" t="s">
+        <v>289</v>
+      </c>
+      <c r="S12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -1831,7 +2132,7 @@
       <c r="H13" t="s">
         <v>19</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>90001</v>
       </c>
       <c r="J13" t="s">
@@ -1844,13 +2145,28 @@
         <v>152</v>
       </c>
       <c r="M13" t="s">
+        <v>303</v>
+      </c>
+      <c r="N13" t="s">
         <v>16</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q13">
+        <v>12356</v>
+      </c>
+      <c r="R13" t="s">
+        <v>290</v>
+      </c>
+      <c r="S13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -1875,7 +2191,7 @@
       <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>12207</v>
       </c>
       <c r="J14" t="s">
@@ -1888,13 +2204,28 @@
         <v>156</v>
       </c>
       <c r="M14" t="s">
+        <v>304</v>
+      </c>
+      <c r="N14" t="s">
         <v>16</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
+        <v>286</v>
+      </c>
+      <c r="P14" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q14">
+        <v>12357</v>
+      </c>
+      <c r="R14" t="s">
+        <v>287</v>
+      </c>
+      <c r="S14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -1919,7 +2250,7 @@
       <c r="H15" t="s">
         <v>102</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>33101</v>
       </c>
       <c r="J15" t="s">
@@ -1932,13 +2263,28 @@
         <v>160</v>
       </c>
       <c r="M15" t="s">
+        <v>305</v>
+      </c>
+      <c r="N15" t="s">
         <v>16</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
+        <v>286</v>
+      </c>
+      <c r="P15" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q15">
+        <v>12358</v>
+      </c>
+      <c r="R15" t="s">
+        <v>288</v>
+      </c>
+      <c r="S15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -1963,7 +2309,7 @@
       <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>90001</v>
       </c>
       <c r="J16" t="s">
@@ -1976,13 +2322,28 @@
         <v>165</v>
       </c>
       <c r="M16" t="s">
+        <v>306</v>
+      </c>
+      <c r="N16" t="s">
         <v>16</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
+        <v>286</v>
+      </c>
+      <c r="P16" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q16">
+        <v>12359</v>
+      </c>
+      <c r="R16" t="s">
+        <v>289</v>
+      </c>
+      <c r="S16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -2007,7 +2368,7 @@
       <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>12207</v>
       </c>
       <c r="J17" t="s">
@@ -2020,13 +2381,28 @@
         <v>170</v>
       </c>
       <c r="M17" t="s">
+        <v>307</v>
+      </c>
+      <c r="N17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
+        <v>286</v>
+      </c>
+      <c r="P17" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q17">
+        <v>12360</v>
+      </c>
+      <c r="R17" t="s">
+        <v>290</v>
+      </c>
+      <c r="S17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -2051,7 +2427,7 @@
       <c r="H18" t="s">
         <v>102</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>33101</v>
       </c>
       <c r="J18" t="s">
@@ -2064,13 +2440,28 @@
         <v>174</v>
       </c>
       <c r="M18" t="s">
+        <v>308</v>
+      </c>
+      <c r="N18" t="s">
         <v>16</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
+        <v>286</v>
+      </c>
+      <c r="P18" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q18">
+        <v>12361</v>
+      </c>
+      <c r="R18" t="s">
+        <v>287</v>
+      </c>
+      <c r="S18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2095,7 +2486,7 @@
       <c r="H19" t="s">
         <v>19</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>90001</v>
       </c>
       <c r="J19" t="s">
@@ -2108,13 +2499,28 @@
         <v>179</v>
       </c>
       <c r="M19" t="s">
+        <v>309</v>
+      </c>
+      <c r="N19" t="s">
         <v>16</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
+        <v>286</v>
+      </c>
+      <c r="P19" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q19">
+        <v>12362</v>
+      </c>
+      <c r="R19" t="s">
+        <v>288</v>
+      </c>
+      <c r="S19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2139,7 +2545,7 @@
       <c r="H20" t="s">
         <v>19</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>90001</v>
       </c>
       <c r="J20" t="s">
@@ -2152,13 +2558,28 @@
         <v>179</v>
       </c>
       <c r="M20" t="s">
+        <v>310</v>
+      </c>
+      <c r="N20" t="s">
         <v>16</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P20" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q20">
+        <v>12363</v>
+      </c>
+      <c r="R20" t="s">
+        <v>289</v>
+      </c>
+      <c r="S20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -2183,7 +2604,7 @@
       <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>12207</v>
       </c>
       <c r="J21" t="s">
@@ -2196,13 +2617,28 @@
         <v>188</v>
       </c>
       <c r="M21" t="s">
+        <v>311</v>
+      </c>
+      <c r="N21" t="s">
         <v>16</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
+        <v>286</v>
+      </c>
+      <c r="P21" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q21">
+        <v>12364</v>
+      </c>
+      <c r="R21" t="s">
+        <v>290</v>
+      </c>
+      <c r="S21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -2227,7 +2663,7 @@
       <c r="H22" t="s">
         <v>102</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <v>33101</v>
       </c>
       <c r="J22" t="s">
@@ -2240,13 +2676,28 @@
         <v>193</v>
       </c>
       <c r="M22" t="s">
+        <v>312</v>
+      </c>
+      <c r="N22" t="s">
         <v>16</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
+        <v>286</v>
+      </c>
+      <c r="P22" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q22">
+        <v>12365</v>
+      </c>
+      <c r="R22" t="s">
+        <v>287</v>
+      </c>
+      <c r="S22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -2271,7 +2722,7 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <v>12207</v>
       </c>
       <c r="J23" t="s">
@@ -2284,14 +2735,31 @@
         <v>198</v>
       </c>
       <c r="M23" t="s">
+        <v>313</v>
+      </c>
+      <c r="N23" t="s">
         <v>16</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="6">
+        <v>45410</v>
+      </c>
+      <c r="Q23">
+        <v>12366</v>
+      </c>
+      <c r="R23" t="s">
+        <v>288</v>
+      </c>
+      <c r="S23" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2299,21 +2767,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6396F3-6D7B-46A0-9EAC-B306C37237B1}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2333,7 +2801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2350,7 +2818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2367,7 +2835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2384,7 +2852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2401,7 +2869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -2418,7 +2886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2432,7 +2900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2914,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2460,7 +2928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2477,7 +2945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2494,7 +2962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2511,7 +2979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -2528,7 +2996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2542,7 +3010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2559,7 +3027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2576,7 +3044,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2593,7 +3061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2610,7 +3078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -2627,7 +3095,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -2644,7 +3112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -2674,15 +3142,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -2696,7 +3164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2710,7 +3178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +3192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2738,7 +3206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2752,7 +3220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2779,19 +3247,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
@@ -2820,7 +3288,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>224</v>
       </c>
@@ -2849,7 +3317,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2878,7 +3346,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>253</v>
       </c>
@@ -2907,7 +3375,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>261</v>
       </c>
@@ -2949,17 +3417,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A1" s="2" t="s">
         <v>228</v>
       </c>
@@ -2979,7 +3447,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>243</v>
       </c>
@@ -2999,7 +3467,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -3019,7 +3487,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>238</v>
       </c>
@@ -3039,7 +3507,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>241</v>
       </c>

--- a/LabSources/365DataEnvironment.xlsx
+++ b/LabSources/365DataEnvironment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Clate\Documents\GitHub\Testing\365\New User\Adding Params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive - Clate\Documents\GitHub\365AutomatedLab\LabSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93F71A-7B07-41BE-BD9E-72CD58BE1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1AE6F0-D849-4C2D-9E53-535143313BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="655" windowWidth="9110" windowHeight="9020" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
+    <workbookView xWindow="5170" yWindow="930" windowWidth="13955" windowHeight="9020" xr2:uid="{D69C5377-2701-4485-B57B-1A8C43364DD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="315">
   <si>
     <t>FirstName</t>
   </si>
@@ -982,6 +982,9 @@
   </si>
   <si>
     <t>212-555-7798</t>
+  </si>
+  <si>
+    <t>ManagerUPN</t>
   </si>
 </sst>
 </file>
@@ -1374,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52769B47-957A-4F9B-8A1C-849E74A1076A}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1396,10 +1399,10 @@
     <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.86328125" customWidth="1"/>
     <col min="16" max="16" width="15.953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.86328125" customWidth="1"/>
+    <col min="17" max="19" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1454,11 +1457,14 @@
       <c r="R1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1513,11 +1519,11 @@
       <c r="R2" t="s">
         <v>287</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1573,10 +1579,13 @@
         <v>288</v>
       </c>
       <c r="S3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -1632,10 +1641,13 @@
         <v>289</v>
       </c>
       <c r="S4" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -1691,10 +1703,13 @@
         <v>290</v>
       </c>
       <c r="S5" t="s">
+        <v>200</v>
+      </c>
+      <c r="T5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1750,10 +1765,13 @@
         <v>287</v>
       </c>
       <c r="S6" t="s">
+        <v>201</v>
+      </c>
+      <c r="T6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -1809,10 +1827,13 @@
         <v>288</v>
       </c>
       <c r="S7" t="s">
+        <v>200</v>
+      </c>
+      <c r="T7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>125</v>
       </c>
@@ -1868,10 +1889,13 @@
         <v>289</v>
       </c>
       <c r="S8" t="s">
+        <v>201</v>
+      </c>
+      <c r="T8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -1927,10 +1951,13 @@
         <v>290</v>
       </c>
       <c r="S9" t="s">
+        <v>200</v>
+      </c>
+      <c r="T9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -1986,10 +2013,13 @@
         <v>287</v>
       </c>
       <c r="S10" t="s">
+        <v>201</v>
+      </c>
+      <c r="T10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2045,10 +2075,13 @@
         <v>288</v>
       </c>
       <c r="S11" t="s">
+        <v>200</v>
+      </c>
+      <c r="T11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2104,10 +2137,13 @@
         <v>289</v>
       </c>
       <c r="S12" t="s">
+        <v>201</v>
+      </c>
+      <c r="T12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>148</v>
       </c>
@@ -2163,10 +2199,13 @@
         <v>290</v>
       </c>
       <c r="S13" t="s">
+        <v>200</v>
+      </c>
+      <c r="T13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -2222,10 +2261,13 @@
         <v>287</v>
       </c>
       <c r="S14" t="s">
+        <v>201</v>
+      </c>
+      <c r="T14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -2281,10 +2323,13 @@
         <v>288</v>
       </c>
       <c r="S15" t="s">
+        <v>200</v>
+      </c>
+      <c r="T15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -2340,10 +2385,13 @@
         <v>289</v>
       </c>
       <c r="S16" t="s">
+        <v>201</v>
+      </c>
+      <c r="T16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>166</v>
       </c>
@@ -2399,10 +2447,13 @@
         <v>290</v>
       </c>
       <c r="S17" t="s">
+        <v>200</v>
+      </c>
+      <c r="T17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>171</v>
       </c>
@@ -2458,10 +2509,13 @@
         <v>287</v>
       </c>
       <c r="S18" t="s">
+        <v>201</v>
+      </c>
+      <c r="T18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -2517,10 +2571,13 @@
         <v>288</v>
       </c>
       <c r="S19" t="s">
+        <v>200</v>
+      </c>
+      <c r="T19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -2576,10 +2633,13 @@
         <v>289</v>
       </c>
       <c r="S20" t="s">
+        <v>201</v>
+      </c>
+      <c r="T20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>182</v>
       </c>
@@ -2635,10 +2695,13 @@
         <v>290</v>
       </c>
       <c r="S21" t="s">
+        <v>200</v>
+      </c>
+      <c r="T21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -2694,10 +2757,13 @@
         <v>287</v>
       </c>
       <c r="S22" t="s">
+        <v>201</v>
+      </c>
+      <c r="T22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>194</v>
       </c>
@@ -2753,6 +2819,9 @@
         <v>288</v>
       </c>
       <c r="S23" t="s">
+        <v>200</v>
+      </c>
+      <c r="T23" t="s">
         <v>15</v>
       </c>
     </row>
